--- a/wpms_main/management/static/files/penal_specification.xlsx
+++ b/wpms_main/management/static/files/penal_specification.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,11 +429,11 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="3" t="n">
-        <v>342</v>
+        <v>32423</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>20.10.2023</t>
+          <t>16.01.2024</t>
         </is>
       </c>
       <c r="F3" s="1" t="n"/>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>342</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>423</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12">
@@ -613,16 +613,18 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>423</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Экосол</t>
+          <t> </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -632,7 +634,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ПЭТФ Флэкс темный</t>
+          <t> </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -640,15 +642,10 @@
           <t> </t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>423</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="A14" t="n">
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -662,7 +659,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ВСЕГО</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -670,10 +667,15 @@
           <t> </t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Отпустил кладовщик:</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -687,54 +689,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ВСЕГО</t>
+          <t> </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1642</v>
+          <t>МАЦИБОРСКАЯ Т.В.</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Отпустил кладовщик:</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>МАЦИБОРСКАЯ Т.В.</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
         <is>
           <t>Получил</t>
         </is>

--- a/wpms_main/management/static/files/penal_specification.xlsx
+++ b/wpms_main/management/static/files/penal_specification.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,11 +429,11 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="3" t="n">
-        <v>32423</v>
+        <v>3525</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>16.01.2024</t>
+          <t>19.01.2024</t>
         </is>
       </c>
       <c r="F3" s="1" t="n"/>
@@ -455,7 +455,7 @@
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>ООО"ФОРУМ ДЮКС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       <c r="C6" s="5" t="n"/>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ФОРУМ ДЮКС"</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>750</v>
+        <v>538.4615384615385</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>750</v>
+        <v>538.4615384615385</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>750</v>
+        <v>538.4615384615385</v>
       </c>
     </row>
     <row r="12">
@@ -613,18 +613,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>750</v>
+        <v>538.4615384615385</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="A13" t="n">
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Экосол</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -634,22 +632,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ПЭТФ Флэкс темный</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t> </t>
         </is>
+      </c>
+      <c r="F13" t="n">
+        <v>538.4615384615385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Экосол</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -659,54 +660,305 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>ПЭТФ Флэкс темный</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>538.4615384615385</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Экосол</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ПЭТФ Флэкс темный</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>538.4615384615385</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Экосол</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ПЭТФ Флэкс темный</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>538.4615384615385</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Экосол</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ПЭТФ Флэкс темный</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>538.4615384615385</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Экосол</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ПЭТФ Флэкс темный</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>538.4615384615385</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Экосол</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ПЭТФ Флэкс темный</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>538.4615384615385</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Экосол</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ПЭТФ Флэкс темный</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>538.4615384615385</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Экосол</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ПЭТФ Флэкс темный</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>538.4615384615385</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>ВСЕГО</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>6999.999999999998</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Отпустил кладовщик:</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>МАЦИБОРСКАЯ Т.В.</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Получил</t>
         </is>

--- a/wpms_main/management/static/files/penal_specification.xlsx
+++ b/wpms_main/management/static/files/penal_specification.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,11 +429,11 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="3" t="n">
-        <v>3525</v>
+        <v>32442</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>19.01.2024</t>
+          <t>24.01.2024</t>
         </is>
       </c>
       <c r="F3" s="1" t="n"/>
@@ -455,7 +455,7 @@
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>ООО"КПО НЕВА"</t>
+          <t>ООО"ФОРУМ ДЮКС"</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       <c r="C6" s="5" t="n"/>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>ООО"ФОРУМ ДЮКС"</t>
+          <t>ООО"КПО НЕВА"</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>538.4615384615385</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>538.4615384615385</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>538.4615384615385</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="12">
@@ -613,16 +613,18 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>538.4615384615385</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Экосол</t>
+          <t> </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -632,25 +634,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ПЭТФ Флэкс темный</t>
+          <t> </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t> </t>
         </is>
-      </c>
-      <c r="F13" t="n">
-        <v>538.4615384615385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Экосол</t>
+          <t> </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -660,7 +659,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ПЭТФ Флэкс темный</t>
+          <t>ВСЕГО</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -669,16 +668,18 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>538.4615384615385</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>7</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Отпустил кладовщик:</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Экосол</t>
+          <t> </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -688,277 +689,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ПЭТФ Флэкс темный</t>
+          <t> </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>538.4615384615385</v>
+          <t>МАЦИБОРСКАЯ Т.В.</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>8</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Экосол</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ПЭТФ Флэкс темный</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>538.4615384615385</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>9</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Экосол</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ПЭТФ Флэкс темный</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>538.4615384615385</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>10</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Экосол</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ПЭТФ Флэкс темный</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>538.4615384615385</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>11</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Экосол</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ПЭТФ Флэкс темный</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>538.4615384615385</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>12</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Экосол</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ПЭТФ Флэкс темный</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>538.4615384615385</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>13</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Экосол</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ПЭТФ Флэкс темный</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>538.4615384615385</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>13</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ВСЕГО</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6999.999999999998</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Отпустил кладовщик:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>МАЦИБОРСКАЯ Т.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Получил</t>
         </is>
